--- a/DataTable/Localization_Launch/A.测试.xlsx
+++ b/DataTable/Localization_Launch/A.测试.xlsx
@@ -22,10 +22,10 @@
     <t>key</t>
   </si>
   <si>
-    <t>zh_cn</t>
-  </si>
-  <si>
-    <t>en</t>
+    <t>ChineseSimplified</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
   <si>
     <t>##type</t>
@@ -40,19 +40,19 @@
     <t>本地化key</t>
   </si>
   <si>
-    <t>中文文本</t>
-  </si>
-  <si>
-    <t>英文文本</t>
-  </si>
-  <si>
-    <t>demo_text_1</t>
-  </si>
-  <si>
-    <t>样例1</t>
-  </si>
-  <si>
-    <t>demo1</t>
+    <t>简体中文</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>launch_demo_text_1</t>
+  </si>
+  <si>
+    <t>启动文本样例1</t>
+  </si>
+  <si>
+    <t>Launch text demo1</t>
   </si>
 </sst>
 </file>
